--- a/day1 tasks.xlsx
+++ b/day1 tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\OneDrive\Desktop\JDBC tasks\day1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34BF740-88CF-4998-876E-B844C145B3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFC239A-3EFE-4DDC-B588-1805DEF41C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95F0C044-4B1E-457C-AAA9-57C964FEEFFE}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -325,43 +325,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,50 +486,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257888</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>170488</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F68658-AC10-0BCE-FBFF-8839E1035AD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="960120" y="23713440"/>
-          <a:ext cx="7592485" cy="6754168"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
@@ -588,7 +511,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -632,7 +555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -676,7 +599,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -720,7 +643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -764,7 +687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -808,7 +731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -852,7 +775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -896,7 +819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -940,7 +863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -984,7 +907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1028,7 +951,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1072,7 +995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1116,7 +1039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1160,7 +1083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1204,7 +1127,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1248,7 +1171,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1292,7 +1215,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1336,7 +1259,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1380,7 +1303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1424,7 +1347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1468,7 +1391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1477,6 +1400,182 @@
         <a:xfrm>
           <a:off x="962891" y="79005545"/>
           <a:ext cx="9802593" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34120</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>5611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>610629</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FE4D4B-66D5-EE2F-EE59-A0C880FE7B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="989463" y="11583462"/>
+          <a:ext cx="5478330" cy="4517363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11374</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>78081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358387</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>4413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB6A806-19AA-608D-5AAD-E6DEAE76AF26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="966717" y="16205185"/>
+          <a:ext cx="5248834" cy="2291944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170598</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32128</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>26997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA17B9D-0CAB-F641-2102-5B2004777F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6641911" y="11560125"/>
+          <a:ext cx="9687918" cy="4775947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261581</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>110619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238131</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>54381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E1B161-9DE1-F861-1B14-C305A59F421C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6732894" y="16419694"/>
+          <a:ext cx="4275595" cy="2491344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B710F9-D3A6-4C9B-ABF7-1C04297C65DD}">
   <dimension ref="A1:B416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A283" sqref="A283"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1913,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1873,53 +1972,53 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1934,58 +2033,58 @@
       </c>
     </row>
     <row r="301" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A301" s="12" t="s">
+      <c r="A301" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="11" t="s">
+      <c r="A302" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="B302" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B303" s="15" t="s">
+      <c r="B303" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B304" s="13" t="s">
+      <c r="B304" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B305" s="13" t="s">
+      <c r="B305" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="13" t="s">
+      <c r="B306" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B307" s="13" t="s">
+      <c r="B307" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B308" s="13" t="s">
+      <c r="B308" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B309" s="13" t="s">
+      <c r="B309" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="B310" s="13" t="s">
+      <c r="B310" s="3" t="s">
         <v>28</v>
       </c>
     </row>
